--- a/data/trans_orig/P0802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C716D0A6-B760-44E0-AA5D-F496FDA67D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F42CEF-E6E3-4ADE-9929-E1CD00C05095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81FD91D0-FDDD-4354-86EF-6219002AF764}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{512EF058-393F-4908-BFCE-A96891BE3BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="687">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -107,2014 +107,1999 @@
     <t>2,35%</t>
   </si>
   <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E9ACA5-2AB1-4DE1-8432-EAF276FCA048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3144108C-160C-4920-80DC-63EBF9A70285}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3373,10 +3358,10 @@
         <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3385,13 +3370,13 @@
         <v>22404</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3400,13 +3385,13 @@
         <v>34862</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3447,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3459,13 @@
         <v>290950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>273</v>
@@ -3489,13 +3474,13 @@
         <v>279265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>566</v>
@@ -3504,13 +3489,13 @@
         <v>570215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3510,13 @@
         <v>75425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -3540,13 +3525,13 @@
         <v>96352</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -3555,13 +3540,13 @@
         <v>171777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3561,13 @@
         <v>20335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3591,13 +3576,13 @@
         <v>28369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -3606,13 +3591,13 @@
         <v>48704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3653,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3680,13 +3665,13 @@
         <v>259357</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>200</v>
@@ -3695,13 +3680,13 @@
         <v>197567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>467</v>
@@ -3710,13 +3695,13 @@
         <v>456924</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3716,13 @@
         <v>173593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>324</v>
@@ -3746,13 +3731,13 @@
         <v>334059</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>509</v>
@@ -3761,13 +3746,13 @@
         <v>507651</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3767,13 @@
         <v>69516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3797,13 +3782,13 @@
         <v>145217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -3812,13 +3797,13 @@
         <v>214733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3871,13 @@
         <v>2820228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>2538</v>
@@ -3901,28 +3886,28 @@
         <v>2593600</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>5285</v>
       </c>
       <c r="N28" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3922,13 @@
         <v>335311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>556</v>
@@ -3952,13 +3937,13 @@
         <v>572074</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>900</v>
@@ -3967,13 +3952,13 @@
         <v>907384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3973,13 @@
         <v>121005</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -4003,13 +3988,13 @@
         <v>213524</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>326</v>
@@ -4018,13 +4003,13 @@
         <v>334529</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4051,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -4080,7 +4065,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4102,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6394BF82-720C-4FFA-8B9A-583BAC0DB699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB24E0-1DB1-4844-84B9-38DCF360B3FE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4226,13 +4211,13 @@
         <v>445313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>406</v>
@@ -4241,13 +4226,13 @@
         <v>414823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>843</v>
@@ -4256,13 +4241,13 @@
         <v>860136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4262,13 @@
         <v>7965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4292,13 +4277,13 @@
         <v>10501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4307,13 +4292,13 @@
         <v>18466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4319,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4343,13 +4328,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4358,13 +4343,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4417,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -4447,13 +4432,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -4462,13 +4447,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4468,13 @@
         <v>20689</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4498,13 +4483,13 @@
         <v>23971</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4513,13 +4498,13 @@
         <v>44660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4519,13 @@
         <v>5708</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4549,13 +4534,13 @@
         <v>2916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4564,13 +4549,13 @@
         <v>8624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4623,13 @@
         <v>641191</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -4653,13 +4638,13 @@
         <v>635569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>1210</v>
@@ -4668,13 +4653,13 @@
         <v>1276760</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4674,13 @@
         <v>30811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4704,13 +4689,13 @@
         <v>53825</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4719,13 +4704,13 @@
         <v>84637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4725,13 @@
         <v>7956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4755,13 +4740,13 @@
         <v>21456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4770,13 +4755,13 @@
         <v>29411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4829,13 @@
         <v>549330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>446</v>
@@ -4859,13 +4844,13 @@
         <v>513756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>935</v>
@@ -4874,13 +4859,13 @@
         <v>1063086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4880,13 @@
         <v>46705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4910,13 +4895,13 @@
         <v>71755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4925,13 +4910,13 @@
         <v>118461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4931,13 @@
         <v>18581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4961,13 +4946,13 @@
         <v>30688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -4976,13 +4961,13 @@
         <v>49269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +5023,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5050,13 +5035,13 @@
         <v>340395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -5065,13 +5050,13 @@
         <v>284663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>568</v>
@@ -5080,13 +5065,13 @@
         <v>625058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5086,13 @@
         <v>61024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -5116,13 +5101,13 @@
         <v>120961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -5131,13 +5116,13 @@
         <v>181985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5137,13 @@
         <v>25993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5167,13 +5152,13 @@
         <v>42176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -5182,13 +5167,13 @@
         <v>68168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,7 +5229,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5256,13 +5241,13 @@
         <v>253174</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>196</v>
@@ -5271,13 +5256,13 @@
         <v>209329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5286,13 +5271,13 @@
         <v>462503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5292,13 @@
         <v>192057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -5322,13 +5307,13 @@
         <v>287381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>442</v>
@@ -5337,13 +5322,13 @@
         <v>479439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5343,13 @@
         <v>114405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -5373,13 +5358,13 @@
         <v>245178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -5388,13 +5373,13 @@
         <v>359583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5447,13 @@
         <v>2890095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>2450</v>
@@ -5477,13 +5462,13 @@
         <v>2641507</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>5172</v>
@@ -5492,13 +5477,13 @@
         <v>5531602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5498,13 @@
         <v>359252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>527</v>
@@ -5528,13 +5513,13 @@
         <v>568396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
@@ -5543,13 +5528,13 @@
         <v>927648</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5549,13 @@
         <v>173511</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H30" s="7">
         <v>320</v>
@@ -5579,13 +5564,13 @@
         <v>347319</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M30" s="7">
         <v>474</v>
@@ -5594,13 +5579,13 @@
         <v>520830</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5641,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6415666B-C9CE-42FE-AF96-5A31E52A0C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D12FD7-0A55-4FCD-85E9-0AFD38DB7B3D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5695,7 +5680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5802,13 +5787,13 @@
         <v>416061</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>390</v>
@@ -5817,13 +5802,13 @@
         <v>381755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>780</v>
@@ -5832,13 +5817,13 @@
         <v>797816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5838,13 @@
         <v>3402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5868,13 +5853,13 @@
         <v>12975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5883,13 +5868,13 @@
         <v>16377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5892,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5919,13 +5904,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5934,13 +5919,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5993,13 @@
         <v>574264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -6023,13 +6008,13 @@
         <v>538965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -6038,13 +6023,13 @@
         <v>1113229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6044,13 @@
         <v>14245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6074,13 +6059,13 @@
         <v>14983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6089,13 +6074,13 @@
         <v>29228</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6095,13 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6125,13 +6110,13 @@
         <v>9596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6140,13 +6125,13 @@
         <v>11582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6199,13 @@
         <v>633017</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>619</v>
@@ -6229,13 +6214,13 @@
         <v>613376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>1223</v>
@@ -6244,13 +6229,13 @@
         <v>1246393</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6250,13 @@
         <v>29036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6280,13 +6265,13 @@
         <v>40916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6295,13 +6280,13 @@
         <v>69952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6301,13 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -6331,13 +6316,13 @@
         <v>7094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -6346,13 +6331,13 @@
         <v>14138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6405,13 @@
         <v>568260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -6435,28 +6420,28 @@
         <v>553806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>1026</v>
       </c>
       <c r="N16" s="7">
-        <v>1122066</v>
+        <v>1122067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6456,13 @@
         <v>45242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6486,13 +6471,13 @@
         <v>55049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6501,13 +6486,13 @@
         <v>100291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6507,13 @@
         <v>32546</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -6537,13 +6522,13 @@
         <v>40222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -6552,13 +6537,13 @@
         <v>72769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>471</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6585,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6614,7 +6599,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6626,13 +6611,13 @@
         <v>381067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -6641,13 +6626,13 @@
         <v>338132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -6656,13 +6641,13 @@
         <v>719199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6662,13 @@
         <v>76356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -6692,13 +6677,13 @@
         <v>98812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -6707,13 +6692,13 @@
         <v>175168</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6713,13 @@
         <v>20495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6743,13 +6728,13 @@
         <v>59906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -6758,13 +6743,13 @@
         <v>80401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6805,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6832,13 +6817,13 @@
         <v>329700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -6847,13 +6832,13 @@
         <v>309837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>611</v>
@@ -6862,13 +6847,13 @@
         <v>639537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6868,13 @@
         <v>170235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6898,13 +6883,13 @@
         <v>270409</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -6913,13 +6898,13 @@
         <v>440644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6919,13 @@
         <v>91393</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -6949,13 +6934,13 @@
         <v>197685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -6964,13 +6949,13 @@
         <v>289078</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7023,13 @@
         <v>2902369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>2638</v>
@@ -7053,13 +7038,13 @@
         <v>2735870</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M28" s="7">
         <v>5381</v>
@@ -7068,13 +7053,13 @@
         <v>5638240</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7074,13 @@
         <v>338515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>435</v>
@@ -7104,13 +7089,13 @@
         <v>493143</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="M29" s="7">
         <v>768</v>
@@ -7119,13 +7104,13 @@
         <v>831659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,10 +7128,10 @@
         <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>265</v>
@@ -7155,13 +7140,13 @@
         <v>315528</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>534</v>
+        <v>290</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>535</v>
+        <v>145</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>327</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -7170,13 +7155,13 @@
         <v>468994</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,7 +7217,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7254,7 +7239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C0B061-69A0-4F03-A1BD-2C1E4A7F81AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31607EBA-A84F-4C93-8B92-65EEF4FA8589}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7271,7 +7256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7378,13 +7363,13 @@
         <v>372286</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>540</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>541</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H4" s="7">
         <v>202</v>
@@ -7393,13 +7378,13 @@
         <v>346708</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>543</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M4" s="7">
         <v>372</v>
@@ -7408,13 +7393,13 @@
         <v>718994</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7414,13 @@
         <v>5393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>547</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7444,13 +7429,13 @@
         <v>6005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>548</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>549</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>553</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7459,13 +7444,13 @@
         <v>11398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>36</v>
+        <v>555</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,10 +7468,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7495,13 +7480,13 @@
         <v>2243</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7510,13 +7495,13 @@
         <v>2243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7569,13 @@
         <v>413783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -7599,13 +7584,13 @@
         <v>491999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
@@ -7614,13 +7599,13 @@
         <v>905782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>564</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7620,13 @@
         <v>9204</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -7650,13 +7635,13 @@
         <v>6249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>568</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -7665,13 +7650,13 @@
         <v>15453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>571</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7671,13 @@
         <v>5409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>573</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7707,7 +7692,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>574</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7716,10 +7701,10 @@
         <v>6376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>577</v>
@@ -7817,16 +7802,16 @@
         <v>1305</v>
       </c>
       <c r="N12" s="7">
-        <v>1093765</v>
+        <v>1093764</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>584</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>585</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7826,13 @@
         <v>25797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -7898,7 +7883,7 @@
         <v>595</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>596</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7910,10 +7895,10 @@
         <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>598</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -7922,13 +7907,13 @@
         <v>15879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>597</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,7 +7955,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167095</v>
+        <v>1167094</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7996,13 +7981,13 @@
         <v>596350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>1003</v>
@@ -8011,13 +7996,13 @@
         <v>650122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M16" s="7">
         <v>1599</v>
@@ -8026,13 +8011,13 @@
         <v>1246473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8032,13 @@
         <v>99884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -8062,13 +8047,13 @@
         <v>71906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>612</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -8077,13 +8062,13 @@
         <v>171790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8083,13 @@
         <v>27756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>614</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -8113,13 +8098,13 @@
         <v>25233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>616</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>617</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -8128,13 +8113,13 @@
         <v>52988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,7 +8161,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8190,7 +8175,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8202,13 +8187,13 @@
         <v>471682</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
@@ -8217,13 +8202,13 @@
         <v>444935</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>1283</v>
@@ -8232,13 +8217,13 @@
         <v>916617</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8238,13 @@
         <v>94148</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
@@ -8268,13 +8253,13 @@
         <v>109354</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M21" s="7">
         <v>279</v>
@@ -8283,7 +8268,7 @@
         <v>203502</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>634</v>
@@ -8310,7 +8295,7 @@
         <v>637</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -8319,7 +8304,7 @@
         <v>42774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>638</v>
@@ -8396,7 +8381,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8444,7 +8429,7 @@
         <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,13 +8444,13 @@
         <v>175317</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H25" s="7">
         <v>604</v>
@@ -8474,13 +8459,13 @@
         <v>324155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M25" s="7">
         <v>855</v>
@@ -8489,10 +8474,10 @@
         <v>499472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>659</v>
@@ -8543,10 +8528,10 @@
         <v>666</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8614,13 +8599,13 @@
         <v>2812811</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H28" s="7">
         <v>3889</v>
@@ -8629,13 +8614,13 @@
         <v>2977301</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>673</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>674</v>
+        <v>363</v>
       </c>
       <c r="M28" s="7">
         <v>6636</v>
@@ -8644,13 +8629,13 @@
         <v>5790112</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,13 +8650,13 @@
         <v>409744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>679</v>
+        <v>496</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H29" s="7">
         <v>944</v>
@@ -8680,13 +8665,13 @@
         <v>549323</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="M29" s="7">
         <v>1369</v>
@@ -8695,13 +8680,13 @@
         <v>959067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>685</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8701,13 @@
         <v>161855</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>681</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>687</v>
+        <v>395</v>
       </c>
       <c r="H30" s="7">
         <v>532</v>
@@ -8731,13 +8716,13 @@
         <v>307723</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>296</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>735</v>
@@ -8746,13 +8731,13 @@
         <v>469578</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>492</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>686</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>691</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,7 +8793,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F42CEF-E6E3-4ADE-9929-E1CD00C05095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F5E47C-139A-419F-BB75-117BD1275D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{512EF058-393F-4908-BFCE-A96891BE3BF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{109B3390-6BE1-4251-895A-685F0F4DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="693">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2017 +77,2035 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
   </si>
   <si>
     <t>8,03%</t>
@@ -2511,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3144108C-160C-4920-80DC-63EBF9A70285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4DC912-D253-4928-B4AE-24B32AAC245E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2943,13 +2961,13 @@
         <v>6371</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2958,13 +2976,13 @@
         <v>3119</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2973,13 +2991,13 @@
         <v>9491</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3053,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3065,13 @@
         <v>606978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>610</v>
@@ -3062,13 +3080,13 @@
         <v>639377</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1192</v>
@@ -3077,13 +3095,13 @@
         <v>1246355</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3116,13 @@
         <v>20329</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3113,13 +3131,13 @@
         <v>39696</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3128,13 +3146,13 @@
         <v>60025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3167,13 @@
         <v>11360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3164,13 +3182,13 @@
         <v>10671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -3179,13 +3197,13 @@
         <v>22032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3259,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3271,13 @@
         <v>468238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -3268,13 +3286,13 @@
         <v>432467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>855</v>
@@ -3283,13 +3301,13 @@
         <v>900705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3322,13 @@
         <v>38451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3319,13 +3337,13 @@
         <v>60771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -3334,13 +3352,13 @@
         <v>99221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3373,13 @@
         <v>12458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3370,13 +3388,13 @@
         <v>22404</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3385,13 +3403,13 @@
         <v>34862</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3465,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3459,13 +3477,13 @@
         <v>290950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>273</v>
@@ -3474,13 +3492,13 @@
         <v>279265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>566</v>
@@ -3489,13 +3507,13 @@
         <v>570215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3528,13 @@
         <v>75425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -3525,13 +3543,13 @@
         <v>96352</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -3540,13 +3558,13 @@
         <v>171777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3579,13 @@
         <v>20335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3576,13 +3594,13 @@
         <v>28369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -3591,13 +3609,13 @@
         <v>48704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3671,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3665,13 +3683,13 @@
         <v>259357</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>200</v>
@@ -3680,13 +3698,13 @@
         <v>197567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>467</v>
@@ -3695,13 +3713,13 @@
         <v>456924</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3734,13 @@
         <v>173593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>324</v>
@@ -3731,13 +3749,13 @@
         <v>334059</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>509</v>
@@ -3746,13 +3764,13 @@
         <v>507651</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3785,13 @@
         <v>69516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -3782,13 +3800,13 @@
         <v>145217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -3797,13 +3815,13 @@
         <v>214733</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,16 +3886,16 @@
         <v>2747</v>
       </c>
       <c r="D28" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>2538</v>
@@ -3886,13 +3904,13 @@
         <v>2593600</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>5285</v>
@@ -3901,13 +3919,13 @@
         <v>5413828</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3940,13 @@
         <v>335311</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>556</v>
@@ -3937,13 +3955,13 @@
         <v>572074</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>900</v>
@@ -3952,13 +3970,13 @@
         <v>907384</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3991,13 @@
         <v>121005</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -3988,13 +4006,13 @@
         <v>213524</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>326</v>
@@ -4003,13 +4021,13 @@
         <v>334529</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4039,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -4065,7 +4083,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB24E0-1DB1-4844-84B9-38DCF360B3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C9870-2016-447B-B200-05C2BCDE5731}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4104,7 +4122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4211,13 +4229,13 @@
         <v>445313</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>406</v>
@@ -4226,13 +4244,13 @@
         <v>414823</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>843</v>
@@ -4241,13 +4259,13 @@
         <v>860136</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4280,13 @@
         <v>7965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4277,13 +4295,13 @@
         <v>10501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4292,13 +4310,13 @@
         <v>18466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,7 +4337,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4328,13 +4346,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4343,13 +4361,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4435,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -4432,13 +4450,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -4447,13 +4465,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4486,13 @@
         <v>20689</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4483,13 +4501,13 @@
         <v>23971</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4498,10 +4516,10 @@
         <v>44660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>246</v>
@@ -4522,10 +4540,10 @@
         <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4534,13 +4552,13 @@
         <v>2916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4549,13 +4567,13 @@
         <v>8624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4629,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4623,13 +4641,13 @@
         <v>641191</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -4638,13 +4656,13 @@
         <v>635569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>1210</v>
@@ -4653,13 +4671,13 @@
         <v>1276760</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4692,7 @@
         <v>30811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>263</v>
@@ -4725,13 +4743,13 @@
         <v>7956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4740,13 +4758,13 @@
         <v>21456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4755,13 +4773,13 @@
         <v>29411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,7 +4835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4859,13 +4877,13 @@
         <v>1063086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4898,13 @@
         <v>46705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4895,13 +4913,13 @@
         <v>71755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4910,13 +4928,13 @@
         <v>118461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4949,13 @@
         <v>18581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4946,13 +4964,13 @@
         <v>30688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -4961,13 +4979,13 @@
         <v>49269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5041,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5035,13 +5053,13 @@
         <v>340395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -5050,13 +5068,13 @@
         <v>284663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>568</v>
@@ -5065,13 +5083,13 @@
         <v>625058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5104,13 @@
         <v>61024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -5101,13 +5119,13 @@
         <v>120961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -5116,13 +5134,13 @@
         <v>181985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5155,13 @@
         <v>25993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5152,13 +5170,13 @@
         <v>42176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -5167,13 +5185,13 @@
         <v>68168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,7 +5247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5241,13 +5259,13 @@
         <v>253174</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>196</v>
@@ -5256,13 +5274,13 @@
         <v>209329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5271,13 +5289,13 @@
         <v>462503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5310,13 @@
         <v>192057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -5307,13 +5325,13 @@
         <v>287381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>442</v>
@@ -5322,13 +5340,13 @@
         <v>479439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5361,13 @@
         <v>114405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -5358,13 +5376,13 @@
         <v>245178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -5373,13 +5391,13 @@
         <v>359583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5465,13 @@
         <v>2890095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H28" s="7">
         <v>2450</v>
@@ -5462,13 +5480,13 @@
         <v>2641507</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M28" s="7">
         <v>5172</v>
@@ -5477,13 +5495,13 @@
         <v>5531602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5516,13 @@
         <v>359252</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>527</v>
@@ -5513,7 +5531,7 @@
         <v>568396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>367</v>
@@ -5641,7 +5659,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5663,7 +5681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D12FD7-0A55-4FCD-85E9-0AFD38DB7B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F05708-41A7-46CE-B77C-EABC1C3A4BB5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5841,7 +5859,7 @@
         <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>392</v>
@@ -5859,7 +5877,7 @@
         <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5868,13 +5886,13 @@
         <v>16377</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,7 +5910,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5904,13 +5922,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5919,13 +5937,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,10 +6011,10 @@
         <v>574264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>405</v>
@@ -6029,7 +6047,7 @@
         <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,10 +6062,10 @@
         <v>14245</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>412</v>
@@ -6074,13 +6092,13 @@
         <v>29228</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6113,13 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6110,13 +6128,13 @@
         <v>9596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6125,13 +6143,13 @@
         <v>11582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,7 +6205,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6199,13 +6217,13 @@
         <v>633017</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>619</v>
@@ -6214,13 +6232,13 @@
         <v>613376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>1223</v>
@@ -6229,13 +6247,13 @@
         <v>1246393</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6268,13 @@
         <v>29036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6265,13 +6283,13 @@
         <v>40916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6280,13 +6298,13 @@
         <v>69952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6319,13 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -6316,13 +6334,13 @@
         <v>7094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -6331,13 +6349,13 @@
         <v>14138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6411,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6405,13 +6423,13 @@
         <v>568260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -6420,28 +6438,28 @@
         <v>553806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>1026</v>
       </c>
       <c r="N16" s="7">
-        <v>1122067</v>
+        <v>1122066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6474,13 @@
         <v>45242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6471,13 +6489,13 @@
         <v>55049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6486,13 +6504,13 @@
         <v>100291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6525,13 @@
         <v>32546</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -6522,13 +6540,13 @@
         <v>40222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -6537,13 +6555,13 @@
         <v>72769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6603,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6599,7 +6617,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6611,13 +6629,13 @@
         <v>381067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -6626,13 +6644,13 @@
         <v>338132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -6641,13 +6659,13 @@
         <v>719199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6680,13 @@
         <v>76356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -6677,13 +6695,13 @@
         <v>98812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -6692,13 +6710,13 @@
         <v>175168</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6731,13 @@
         <v>20495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6728,13 +6746,13 @@
         <v>59906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -6743,13 +6761,13 @@
         <v>80401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6823,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6817,13 +6835,13 @@
         <v>329700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -6832,13 +6850,13 @@
         <v>309837</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>611</v>
@@ -6847,13 +6865,13 @@
         <v>639537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6886,13 @@
         <v>170235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6883,13 +6901,13 @@
         <v>270409</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -6898,13 +6916,13 @@
         <v>440644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6937,13 @@
         <v>91393</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -6934,13 +6952,13 @@
         <v>197685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -6949,13 +6967,13 @@
         <v>289078</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +7041,13 @@
         <v>2902369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>518</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>525</v>
+        <v>279</v>
       </c>
       <c r="H28" s="7">
         <v>2638</v>
@@ -7038,13 +7056,13 @@
         <v>2735870</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>527</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M28" s="7">
         <v>5381</v>
@@ -7053,13 +7071,13 @@
         <v>5638240</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7092,13 @@
         <v>338515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>435</v>
@@ -7089,13 +7107,13 @@
         <v>493143</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M29" s="7">
         <v>768</v>
@@ -7104,13 +7122,13 @@
         <v>831659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7143,13 @@
         <v>153465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H30" s="7">
         <v>265</v>
@@ -7140,13 +7158,13 @@
         <v>315528</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>290</v>
+        <v>535</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>145</v>
+        <v>536</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>327</v>
+        <v>524</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -7155,13 +7173,13 @@
         <v>468994</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>544</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,7 +7235,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7239,7 +7257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31607EBA-A84F-4C93-8B92-65EEF4FA8589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24595838-7CC5-4A86-82A4-F3E794068F39}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7256,7 +7274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7363,13 +7381,13 @@
         <v>372286</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>540</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>409</v>
+        <v>541</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H4" s="7">
         <v>202</v>
@@ -7378,13 +7396,13 @@
         <v>346708</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>543</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M4" s="7">
         <v>372</v>
@@ -7393,13 +7411,13 @@
         <v>718994</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7432,13 @@
         <v>5393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>549</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7429,13 +7447,13 @@
         <v>6005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7444,13 +7462,13 @@
         <v>11398</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,10 +7486,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7480,13 +7498,13 @@
         <v>2243</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>559</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7495,13 +7513,13 @@
         <v>2243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7587,13 @@
         <v>413783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -7584,13 +7602,13 @@
         <v>491999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>562</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
@@ -7599,13 +7617,13 @@
         <v>905782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7638,13 @@
         <v>9204</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -7635,13 +7653,13 @@
         <v>6249</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -7650,13 +7668,13 @@
         <v>15453</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>434</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7689,13 @@
         <v>5409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>577</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7692,7 +7710,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7701,13 +7719,13 @@
         <v>6376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7781,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7793,13 @@
         <v>526413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H12" s="7">
         <v>786</v>
@@ -7790,13 +7808,13 @@
         <v>567353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -7805,13 +7823,13 @@
         <v>1093764</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7844,13 @@
         <v>25797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>589</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -7841,13 +7859,13 @@
         <v>31654</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -7856,13 +7874,13 @@
         <v>57451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7895,13 @@
         <v>5042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7892,10 +7910,10 @@
         <v>10837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>597</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>598</v>
@@ -7907,7 +7925,7 @@
         <v>15879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>34</v>
@@ -7969,7 +7987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8035,10 +8053,10 @@
         <v>609</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>610</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -8047,10 +8065,10 @@
         <v>71906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>612</v>
@@ -8086,10 +8104,10 @@
         <v>616</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>266</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -8101,10 +8119,10 @@
         <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -8113,13 +8131,13 @@
         <v>52988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>618</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>618</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,7 +8193,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8187,13 +8205,13 @@
         <v>471682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
@@ -8202,13 +8220,13 @@
         <v>444935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>1283</v>
@@ -8217,13 +8235,13 @@
         <v>916617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8256,13 @@
         <v>94148</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
@@ -8253,13 +8271,13 @@
         <v>109354</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M21" s="7">
         <v>279</v>
@@ -8268,13 +8286,13 @@
         <v>203502</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8307,13 @@
         <v>34327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>637</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -8304,13 +8322,13 @@
         <v>42774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>639</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -8319,13 +8337,13 @@
         <v>77101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>642</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,7 +8399,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8393,13 +8411,13 @@
         <v>432297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>692</v>
@@ -8408,13 +8426,13 @@
         <v>476184</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>1333</v>
@@ -8423,13 +8441,13 @@
         <v>908482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8444,13 +8462,13 @@
         <v>175317</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H25" s="7">
         <v>604</v>
@@ -8459,13 +8477,13 @@
         <v>324155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M25" s="7">
         <v>855</v>
@@ -8474,13 +8492,13 @@
         <v>499472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>660</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8495,13 +8513,13 @@
         <v>89321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>662</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>411</v>
@@ -8510,13 +8528,13 @@
         <v>225669</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M26" s="7">
         <v>546</v>
@@ -8525,13 +8543,13 @@
         <v>314990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>668</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,13 +8617,13 @@
         <v>2812811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H28" s="7">
         <v>3889</v>
@@ -8614,13 +8632,13 @@
         <v>2977301</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>6636</v>
@@ -8629,13 +8647,13 @@
         <v>5790112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8650,13 +8668,13 @@
         <v>409744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>496</v>
+        <v>680</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H29" s="7">
         <v>944</v>
@@ -8665,13 +8683,13 @@
         <v>549323</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="M29" s="7">
         <v>1369</v>
@@ -8683,10 +8701,10 @@
         <v>369</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,13 +8719,13 @@
         <v>161855</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>688</v>
       </c>
       <c r="H30" s="7">
         <v>532</v>
@@ -8716,13 +8734,13 @@
         <v>307723</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="M30" s="7">
         <v>735</v>
@@ -8731,13 +8749,13 @@
         <v>469578</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>492</v>
+        <v>117</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8793,7 +8811,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F5E47C-139A-419F-BB75-117BD1275D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49D4A7B-DD0E-4BF4-85B8-E78EA5EFE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{109B3390-6BE1-4251-895A-685F0F4DFEB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67CBCB79-74E0-45A9-9F07-0CE8FB60E7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="692">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,2053 +71,2050 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>7,06%</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4DC912-D253-4928-B4AE-24B32AAC245E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD54DC28-54D9-4127-820F-6DAAE4AF05ED}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2961,13 +2958,13 @@
         <v>6371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2976,13 +2973,13 @@
         <v>3119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2991,13 +2988,13 @@
         <v>9491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3050,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3065,13 +3062,13 @@
         <v>606978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>610</v>
@@ -3080,13 +3077,13 @@
         <v>639377</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1192</v>
@@ -3095,13 +3092,13 @@
         <v>1246355</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3113,13 @@
         <v>20329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3131,13 +3128,13 @@
         <v>39696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3146,13 +3143,13 @@
         <v>60025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3164,13 @@
         <v>11360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3182,13 +3179,13 @@
         <v>10671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -3197,13 +3194,13 @@
         <v>22032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,7 +3256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3268,13 @@
         <v>468238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -3286,13 +3283,13 @@
         <v>432467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>855</v>
@@ -3301,13 +3298,13 @@
         <v>900705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3319,13 @@
         <v>38451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3337,13 +3334,13 @@
         <v>60771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -3352,13 +3349,13 @@
         <v>99221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3370,13 @@
         <v>12458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3388,13 +3385,13 @@
         <v>22404</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3403,13 +3400,13 @@
         <v>34862</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3462,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3477,13 +3474,13 @@
         <v>290950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>273</v>
@@ -3492,13 +3489,13 @@
         <v>279265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>566</v>
@@ -3507,13 +3504,13 @@
         <v>570215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3525,13 @@
         <v>75425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -3543,13 +3540,13 @@
         <v>96352</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -3558,13 +3555,13 @@
         <v>171777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3576,13 @@
         <v>20335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3886,7 +3883,7 @@
         <v>2747</v>
       </c>
       <c r="D28" s="7">
-        <v>2820227</v>
+        <v>2820228</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>177</v>
@@ -3916,7 +3913,7 @@
         <v>5285</v>
       </c>
       <c r="N28" s="7">
-        <v>5413828</v>
+        <v>5413827</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>183</v>
@@ -4039,7 +4036,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -4069,7 +4066,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -4105,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C9870-2016-447B-B200-05C2BCDE5731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE0BE7-9BBB-4962-B6ED-410C4F856A2C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4283,7 +4280,7 @@
         <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>216</v>
@@ -4295,13 +4292,13 @@
         <v>10501</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4310,13 +4307,13 @@
         <v>18466</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,7 +4334,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4346,13 +4343,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4361,13 +4358,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4432,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -4450,13 +4447,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -4465,13 +4462,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4483,13 @@
         <v>20689</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4501,13 +4498,13 @@
         <v>23971</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4516,13 +4513,13 @@
         <v>44660</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4534,13 @@
         <v>5708</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4552,13 +4549,13 @@
         <v>2916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4567,13 +4564,13 @@
         <v>8624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4626,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4641,13 +4638,13 @@
         <v>641191</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -4656,13 +4653,13 @@
         <v>635569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>1210</v>
@@ -4671,13 +4668,13 @@
         <v>1276760</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4689,13 @@
         <v>30811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4707,13 +4704,13 @@
         <v>53825</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4722,13 +4719,13 @@
         <v>84637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4740,13 @@
         <v>7956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4758,13 +4755,13 @@
         <v>21456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4773,13 +4770,13 @@
         <v>29411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4832,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4847,13 +4844,13 @@
         <v>549330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>446</v>
@@ -4862,13 +4859,13 @@
         <v>513756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>935</v>
@@ -4877,13 +4874,13 @@
         <v>1063086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4895,13 @@
         <v>46705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4913,13 +4910,13 @@
         <v>71755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4928,13 +4925,13 @@
         <v>118461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4946,13 @@
         <v>18581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4964,13 +4961,13 @@
         <v>30688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -4979,13 +4976,13 @@
         <v>49269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5038,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5050,13 @@
         <v>340395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -5068,13 +5065,13 @@
         <v>284663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>568</v>
@@ -5083,13 +5080,13 @@
         <v>625058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5101,13 @@
         <v>61024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -5119,13 +5116,13 @@
         <v>120961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -5134,13 +5131,13 @@
         <v>181985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5152,13 @@
         <v>25993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5170,13 +5167,13 @@
         <v>42176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -5185,13 +5182,13 @@
         <v>68168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5256,13 @@
         <v>253174</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>196</v>
@@ -5274,13 +5271,13 @@
         <v>209329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5289,13 +5286,13 @@
         <v>462503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5307,13 @@
         <v>192057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -5325,13 +5322,13 @@
         <v>287381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>442</v>
@@ -5340,13 +5337,13 @@
         <v>479439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5358,13 @@
         <v>114405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -5376,13 +5373,13 @@
         <v>245178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -5391,13 +5388,13 @@
         <v>359583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5462,13 @@
         <v>2890095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>2450</v>
@@ -5480,13 +5477,13 @@
         <v>2641507</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M28" s="7">
         <v>5172</v>
@@ -5495,13 +5492,13 @@
         <v>5531602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>358</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5513,13 @@
         <v>359252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>527</v>
@@ -5531,13 +5528,13 @@
         <v>568396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>857</v>
@@ -5546,13 +5543,13 @@
         <v>927648</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5564,13 @@
         <v>173511</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>320</v>
@@ -5582,13 +5579,13 @@
         <v>347319</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M30" s="7">
         <v>474</v>
@@ -5597,13 +5594,13 @@
         <v>520830</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F05708-41A7-46CE-B77C-EABC1C3A4BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDBF12D-3571-4284-A10D-FE3041CA1F02}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5698,7 +5695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5805,13 +5802,13 @@
         <v>416061</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>390</v>
@@ -5820,13 +5817,13 @@
         <v>381755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>780</v>
@@ -5835,13 +5832,13 @@
         <v>797816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5853,13 @@
         <v>3402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5871,13 +5868,13 @@
         <v>12975</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5886,13 +5883,13 @@
         <v>16377</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5907,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5922,13 +5919,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5937,13 +5934,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6008,13 @@
         <v>574264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -6026,13 +6023,13 @@
         <v>538965</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -6041,13 +6038,13 @@
         <v>1113229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6059,13 @@
         <v>14245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6077,13 +6074,13 @@
         <v>14983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6092,13 +6089,13 @@
         <v>29228</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>225</v>
+        <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6110,13 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6128,13 +6125,13 @@
         <v>9596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6143,13 +6140,13 @@
         <v>11582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6202,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6217,13 +6214,13 @@
         <v>633017</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>619</v>
@@ -6235,10 +6232,10 @@
         <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>1223</v>
@@ -6247,13 +6244,13 @@
         <v>1246393</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,7 +6265,7 @@
         <v>29036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>427</v>
@@ -6298,7 +6295,7 @@
         <v>69952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>432</v>
@@ -6325,7 +6322,7 @@
         <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -6334,13 +6331,13 @@
         <v>7094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -6349,13 +6346,13 @@
         <v>14138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6423,13 +6420,13 @@
         <v>568260</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -6438,13 +6435,13 @@
         <v>553806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>1026</v>
@@ -6492,7 +6489,7 @@
         <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>453</v>
@@ -6546,7 +6543,7 @@
         <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -6555,13 +6552,13 @@
         <v>72769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,7 +6614,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6632,10 +6629,10 @@
         <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -6644,13 +6641,13 @@
         <v>338132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -6659,13 +6656,13 @@
         <v>719199</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6677,13 @@
         <v>76356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -6695,13 +6692,13 @@
         <v>98812</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -6710,13 +6707,13 @@
         <v>175168</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6728,13 @@
         <v>20495</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6746,13 +6743,13 @@
         <v>59906</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -6761,13 +6758,13 @@
         <v>80401</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6832,13 @@
         <v>329700</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -6850,13 +6847,13 @@
         <v>309837</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>611</v>
@@ -6865,13 +6862,13 @@
         <v>639537</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6883,13 @@
         <v>170235</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6901,13 +6898,13 @@
         <v>270409</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -6916,13 +6913,13 @@
         <v>440644</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6934,13 @@
         <v>91393</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -6952,13 +6949,13 @@
         <v>197685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -6967,13 +6964,13 @@
         <v>289078</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7038,13 @@
         <v>2902369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>2638</v>
@@ -7056,13 +7053,13 @@
         <v>2735870</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M28" s="7">
         <v>5381</v>
@@ -7071,13 +7068,13 @@
         <v>5638240</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7089,13 @@
         <v>338515</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>435</v>
@@ -7107,13 +7104,13 @@
         <v>493143</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M29" s="7">
         <v>768</v>
@@ -7122,13 +7119,13 @@
         <v>831659</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7140,13 @@
         <v>153465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H30" s="7">
         <v>265</v>
@@ -7158,13 +7155,13 @@
         <v>315528</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -7176,7 +7173,7 @@
         <v>537</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>429</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>538</v>
@@ -7257,7 +7254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24595838-7CC5-4A86-82A4-F3E794068F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E811EEE-3B95-424C-9E8D-26D4226BC5A0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7396,10 +7393,10 @@
         <v>346708</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>544</v>
@@ -7411,13 +7408,13 @@
         <v>718994</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7429,13 @@
         <v>5393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7447,13 +7444,13 @@
         <v>6005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>549</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>551</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7462,13 +7459,13 @@
         <v>11398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>553</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,10 +7483,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7498,13 +7495,13 @@
         <v>2243</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>554</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7513,13 +7510,13 @@
         <v>2243</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>558</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7584,13 @@
         <v>413783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -7602,13 +7599,13 @@
         <v>491999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
@@ -7617,13 +7614,13 @@
         <v>905782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7635,13 @@
         <v>9204</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>569</v>
+        <v>121</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -7653,13 +7650,13 @@
         <v>6249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -7668,13 +7665,13 @@
         <v>15453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>574</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7686,13 @@
         <v>5409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>573</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>577</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7710,7 +7707,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>574</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7719,13 +7716,13 @@
         <v>6376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7778,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7790,13 @@
         <v>526413</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H12" s="7">
         <v>786</v>
@@ -7808,28 +7805,28 @@
         <v>567353</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
       </c>
       <c r="N12" s="7">
-        <v>1093764</v>
+        <v>1093765</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>587</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7841,13 @@
         <v>25797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>587</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -7859,13 +7856,13 @@
         <v>31654</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -7874,13 +7871,13 @@
         <v>57451</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7892,13 @@
         <v>5042</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>596</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>597</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7910,13 +7907,13 @@
         <v>10837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>596</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>598</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -7925,13 +7922,13 @@
         <v>15879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>597</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>599</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,7 +7970,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167094</v>
+        <v>1167095</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7987,7 +7984,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7999,13 +7996,13 @@
         <v>596350</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>1003</v>
@@ -8014,13 +8011,13 @@
         <v>650122</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="M16" s="7">
         <v>1599</v>
@@ -8029,13 +8026,13 @@
         <v>1246473</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8047,13 @@
         <v>99884</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -8065,13 +8062,13 @@
         <v>71906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -8080,13 +8077,13 @@
         <v>171790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8098,13 @@
         <v>27756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>615</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -8116,13 +8113,13 @@
         <v>25233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>616</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>617</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -8131,13 +8128,13 @@
         <v>52988</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,7 +8176,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8193,7 +8190,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8259,10 +8256,10 @@
         <v>629</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
@@ -8271,13 +8268,13 @@
         <v>109354</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="M21" s="7">
         <v>279</v>
@@ -8286,13 +8283,13 @@
         <v>203502</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8304,13 @@
         <v>34327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>637</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -8322,13 +8319,13 @@
         <v>42774</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -8337,13 +8334,13 @@
         <v>77101</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,13 +8408,13 @@
         <v>432297</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>692</v>
@@ -8426,13 +8423,13 @@
         <v>476184</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>1333</v>
@@ -8441,13 +8438,13 @@
         <v>908482</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>651</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>652</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,13 +8459,13 @@
         <v>175317</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="H25" s="7">
         <v>604</v>
@@ -8477,13 +8474,13 @@
         <v>324155</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M25" s="7">
         <v>855</v>
@@ -8492,13 +8489,13 @@
         <v>499472</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +8510,13 @@
         <v>89321</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>411</v>
@@ -8528,13 +8525,13 @@
         <v>225669</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="M26" s="7">
         <v>546</v>
@@ -8543,13 +8540,13 @@
         <v>314990</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,13 +8614,13 @@
         <v>2812811</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H28" s="7">
         <v>3889</v>
@@ -8632,13 +8629,13 @@
         <v>2977301</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>6636</v>
@@ -8647,13 +8644,13 @@
         <v>5790112</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8668,13 +8665,13 @@
         <v>409744</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="H29" s="7">
         <v>944</v>
@@ -8683,10 +8680,10 @@
         <v>549323</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>683</v>
@@ -8698,7 +8695,7 @@
         <v>959067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>684</v>
@@ -8719,13 +8716,13 @@
         <v>161855</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="H30" s="7">
         <v>532</v>
@@ -8734,13 +8731,13 @@
         <v>307723</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="M30" s="7">
         <v>735</v>
@@ -8749,13 +8746,13 @@
         <v>469578</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>117</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>692</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>143</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P0802-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49D4A7B-DD0E-4BF4-85B8-E78EA5EFE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B997FF-6546-4559-BB67-56A6785522FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67CBCB79-74E0-45A9-9F07-0CE8FB60E7ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D7DBAE-6876-4635-92C3-23822C44605C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="794">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No, no limita nada</t>
@@ -161,7 +161,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>96,97%</t>
@@ -245,7 +245,7 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>95,04%</t>
@@ -329,7 +329,7 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>90,19%</t>
@@ -407,7 +407,7 @@
     <t>4,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>75,24%</t>
@@ -488,1099 +488,1330 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>85,51%</t>
@@ -1661,460 +1892,535 @@
     <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2832,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD54DC28-54D9-4127-820F-6DAAE4AF05ED}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B25AD81-0E16-4218-8E1F-EEBE3C078785}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3674,10 +3980,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="D24" s="7">
-        <v>259357</v>
+        <v>191620</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>150</v>
@@ -3689,10 +3995,10 @@
         <v>152</v>
       </c>
       <c r="H24" s="7">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I24" s="7">
-        <v>197567</v>
+        <v>132431</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>153</v>
@@ -3704,10 +4010,10 @@
         <v>155</v>
       </c>
       <c r="M24" s="7">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="N24" s="7">
-        <v>456924</v>
+        <v>324052</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>156</v>
@@ -3725,10 +4031,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7">
-        <v>173593</v>
+        <v>76070</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>159</v>
@@ -3740,10 +4046,10 @@
         <v>161</v>
       </c>
       <c r="H25" s="7">
-        <v>324</v>
+        <v>172</v>
       </c>
       <c r="I25" s="7">
-        <v>334059</v>
+        <v>158762</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>162</v>
@@ -3755,10 +4061,10 @@
         <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>509</v>
+        <v>252</v>
       </c>
       <c r="N25" s="7">
-        <v>507651</v>
+        <v>234831</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>165</v>
@@ -3776,10 +4082,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>69516</v>
+        <v>24893</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>168</v>
@@ -3791,10 +4097,10 @@
         <v>170</v>
       </c>
       <c r="H26" s="7">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>145217</v>
+        <v>51741</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>171</v>
@@ -3806,10 +4112,10 @@
         <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="N26" s="7">
-        <v>214733</v>
+        <v>76634</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>174</v>
@@ -3827,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -3842,10 +4148,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -3857,10 +4163,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -3874,55 +4180,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2747</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7">
-        <v>2820228</v>
+        <v>67737</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
-        <v>2538</v>
+        <v>56</v>
       </c>
       <c r="I28" s="7">
-        <v>2593600</v>
+        <v>65135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
-        <v>5285</v>
+        <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>5413827</v>
+        <v>132872</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,49 +4237,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="D29" s="7">
-        <v>335311</v>
+        <v>97523</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>556</v>
+        <v>152</v>
       </c>
       <c r="I29" s="7">
-        <v>572074</v>
+        <v>175297</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>900</v>
+        <v>257</v>
       </c>
       <c r="N29" s="7">
-        <v>907384</v>
+        <v>272820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,49 +4288,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7">
-        <v>121005</v>
+        <v>44624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
+        <v>82</v>
+      </c>
+      <c r="I30" s="7">
+        <v>93476</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" s="7">
+        <v>127</v>
+      </c>
+      <c r="N30" s="7">
+        <v>138099</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="7">
-        <v>213524</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M30" s="7">
-        <v>326</v>
-      </c>
-      <c r="N30" s="7">
-        <v>334529</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,63 +4339,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2747</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2820227</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2538</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2593599</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5285</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5413828</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>344</v>
+      </c>
+      <c r="D33" s="7">
+        <v>335311</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="7">
+        <v>556</v>
+      </c>
+      <c r="I33" s="7">
+        <v>572074</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="7">
+        <v>900</v>
+      </c>
+      <c r="N33" s="7">
+        <v>907384</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>123</v>
+      </c>
+      <c r="D34" s="7">
+        <v>121005</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="7">
+        <v>203</v>
+      </c>
+      <c r="I34" s="7">
+        <v>213524</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="7">
+        <v>326</v>
+      </c>
+      <c r="N34" s="7">
+        <v>334529</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4102,8 +4615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE0BE7-9BBB-4962-B6ED-410C4F856A2C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725A001-9010-481B-A248-BC52AAC0F23F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4119,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4226,13 +4739,13 @@
         <v>445313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>406</v>
@@ -4241,13 +4754,13 @@
         <v>414823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>843</v>
@@ -4256,13 +4769,13 @@
         <v>860136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4790,13 @@
         <v>7965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4295,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4307,13 +4820,13 @@
         <v>18466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4847,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4343,10 +4856,10 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>57</v>
@@ -4358,10 +4871,10 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>28</v>
@@ -4432,13 +4945,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -4447,13 +4960,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -4462,13 +4975,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4996,13 @@
         <v>20689</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4498,13 +5011,13 @@
         <v>23971</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -4513,13 +5026,13 @@
         <v>44660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,10 +5050,10 @@
         <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4549,13 +5062,13 @@
         <v>2916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4564,13 +5077,13 @@
         <v>8624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +5151,13 @@
         <v>641191</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>597</v>
@@ -4653,13 +5166,13 @@
         <v>635569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>1210</v>
@@ -4668,13 +5181,13 @@
         <v>1276760</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +5202,13 @@
         <v>30811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4704,13 +5217,13 @@
         <v>53825</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4719,13 +5232,13 @@
         <v>84637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +5253,13 @@
         <v>7956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4755,13 +5268,13 @@
         <v>21456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4770,13 +5283,13 @@
         <v>29411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +5357,13 @@
         <v>549330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>446</v>
@@ -4859,13 +5372,13 @@
         <v>513756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>935</v>
@@ -4874,13 +5387,13 @@
         <v>1063086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +5408,13 @@
         <v>46705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4910,13 +5423,13 @@
         <v>71755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4925,13 +5438,13 @@
         <v>118461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +5459,13 @@
         <v>18581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4961,13 +5474,13 @@
         <v>30688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -4976,13 +5489,13 @@
         <v>49269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5563,13 @@
         <v>340395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>258</v>
@@ -5065,13 +5578,13 @@
         <v>284663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>568</v>
@@ -5080,13 +5593,13 @@
         <v>625058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5614,13 @@
         <v>61024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -5116,13 +5629,13 @@
         <v>120961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -5131,13 +5644,13 @@
         <v>181985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5665,13 @@
         <v>25993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5167,13 +5680,13 @@
         <v>42176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -5182,13 +5695,13 @@
         <v>68168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +5763,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="D24" s="7">
-        <v>253174</v>
+        <v>180944</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="H24" s="7">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="I24" s="7">
-        <v>209329</v>
+        <v>144887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="N24" s="7">
-        <v>462503</v>
+        <v>325831</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,49 +5814,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="D25" s="7">
-        <v>192057</v>
+        <v>88169</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="I25" s="7">
-        <v>287381</v>
+        <v>133396</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="M25" s="7">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="N25" s="7">
-        <v>479439</v>
+        <v>221565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,49 +5865,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>114405</v>
+        <v>40673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="H26" s="7">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>245178</v>
+        <v>75713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="M26" s="7">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="N26" s="7">
-        <v>359583</v>
+        <v>116385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -5418,10 +5931,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>741888</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -5433,10 +5946,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1301525</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -5450,55 +5963,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2722</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7">
-        <v>2890095</v>
+        <v>72230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="H28" s="7">
-        <v>2450</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>2641507</v>
+        <v>64442</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
-        <v>5172</v>
+        <v>123</v>
       </c>
       <c r="N28" s="7">
-        <v>5531602</v>
+        <v>136672</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,49 +6020,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>330</v>
+        <v>94</v>
       </c>
       <c r="D29" s="7">
-        <v>359252</v>
+        <v>103888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="H29" s="7">
-        <v>527</v>
+        <v>138</v>
       </c>
       <c r="I29" s="7">
-        <v>568396</v>
+        <v>153985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="M29" s="7">
-        <v>857</v>
+        <v>232</v>
       </c>
       <c r="N29" s="7">
-        <v>927648</v>
+        <v>257874</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,49 +6071,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="D30" s="7">
-        <v>173511</v>
+        <v>73733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="H30" s="7">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c r="I30" s="7">
-        <v>347319</v>
+        <v>169465</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="M30" s="7">
-        <v>474</v>
+        <v>216</v>
       </c>
       <c r="N30" s="7">
-        <v>520830</v>
+        <v>243198</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,63 +6122,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>349</v>
+      </c>
+      <c r="I31" s="7">
+        <v>387892</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>571</v>
+      </c>
+      <c r="N31" s="7">
+        <v>637743</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2722</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2890095</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2450</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2641507</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5172</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5531602</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>330</v>
+      </c>
+      <c r="D33" s="7">
+        <v>359252</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H33" s="7">
+        <v>527</v>
+      </c>
+      <c r="I33" s="7">
+        <v>568396</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M33" s="7">
+        <v>857</v>
+      </c>
+      <c r="N33" s="7">
+        <v>927648</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>154</v>
+      </c>
+      <c r="D34" s="7">
+        <v>173511</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="7">
+        <v>320</v>
+      </c>
+      <c r="I34" s="7">
+        <v>347319</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M34" s="7">
+        <v>474</v>
+      </c>
+      <c r="N34" s="7">
+        <v>520830</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3206</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3422858</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3557222</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6503</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6980080</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5678,8 +6398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDBF12D-3571-4284-A10D-FE3041CA1F02}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171C4BB4-A8BD-420B-9B40-FD079D197AE2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5695,7 +6415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5802,13 +6522,13 @@
         <v>416061</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>390</v>
@@ -5817,13 +6537,13 @@
         <v>381755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>780</v>
@@ -5832,13 +6552,13 @@
         <v>797816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +6573,13 @@
         <v>3402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5868,13 +6588,13 @@
         <v>12975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5883,13 +6603,13 @@
         <v>16377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +6627,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5919,13 +6639,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5934,13 +6654,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6728,13 @@
         <v>574264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -6023,13 +6743,13 @@
         <v>538965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -6038,10 +6758,10 @@
         <v>1113229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>11</v>
@@ -6059,13 +6779,13 @@
         <v>14245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6074,13 +6794,13 @@
         <v>14983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6089,13 +6809,13 @@
         <v>29228</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6830,7 @@
         <v>1987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
@@ -6125,13 +6845,13 @@
         <v>9596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6140,13 +6860,13 @@
         <v>11582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6934,13 @@
         <v>633017</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>619</v>
@@ -6229,13 +6949,13 @@
         <v>613376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>1223</v>
@@ -6244,13 +6964,13 @@
         <v>1246393</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,10 +6988,10 @@
         <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6280,13 +7000,13 @@
         <v>40916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6298,10 +7018,10 @@
         <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,10 +7036,10 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
@@ -6331,10 +7051,10 @@
         <v>7094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>27</v>
@@ -6346,13 +7066,13 @@
         <v>14138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +7140,13 @@
         <v>568260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -6435,13 +7155,13 @@
         <v>553806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>1026</v>
@@ -6450,13 +7170,13 @@
         <v>1122066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +7191,13 @@
         <v>45242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6486,13 +7206,13 @@
         <v>55049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6501,13 +7221,13 @@
         <v>100291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +7242,13 @@
         <v>32546</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -6537,13 +7257,13 @@
         <v>40222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -6552,13 +7272,13 @@
         <v>72769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +7346,13 @@
         <v>381067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -6641,13 +7361,13 @@
         <v>338132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -6656,13 +7376,13 @@
         <v>719199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +7397,13 @@
         <v>76356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -6692,13 +7412,13 @@
         <v>98812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -6707,13 +7427,13 @@
         <v>175168</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +7448,13 @@
         <v>20495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6743,13 +7463,13 @@
         <v>59906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -6758,13 +7478,13 @@
         <v>80401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,49 +7546,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="D24" s="7">
-        <v>329700</v>
+        <v>220265</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="I24" s="7">
-        <v>309837</v>
+        <v>196906</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
-        <v>611</v>
+        <v>396</v>
       </c>
       <c r="N24" s="7">
-        <v>639537</v>
+        <v>417172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,49 +7597,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>170235</v>
+        <v>75307</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="H25" s="7">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="I25" s="7">
-        <v>270409</v>
+        <v>123080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="M25" s="7">
-        <v>412</v>
+        <v>190</v>
       </c>
       <c r="N25" s="7">
-        <v>440644</v>
+        <v>198387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,49 +7648,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7">
-        <v>91393</v>
+        <v>38757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>558</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="H26" s="7">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>197685</v>
+        <v>57776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="M26" s="7">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="N26" s="7">
-        <v>289078</v>
+        <v>96533</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -6994,10 +7714,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -7009,10 +7729,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -7026,55 +7746,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2743</v>
+        <v>130</v>
       </c>
       <c r="D28" s="7">
-        <v>2902369</v>
+        <v>109435</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="H28" s="7">
-        <v>2638</v>
+        <v>85</v>
       </c>
       <c r="I28" s="7">
-        <v>2735870</v>
+        <v>112931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
-        <v>5381</v>
+        <v>215</v>
       </c>
       <c r="N28" s="7">
-        <v>5638240</v>
+        <v>222365</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,49 +7803,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7">
-        <v>338515</v>
+        <v>94928</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="H29" s="7">
-        <v>435</v>
+        <v>112</v>
       </c>
       <c r="I29" s="7">
-        <v>493143</v>
+        <v>147329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="M29" s="7">
-        <v>768</v>
+        <v>222</v>
       </c>
       <c r="N29" s="7">
-        <v>831659</v>
+        <v>242257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,49 +7854,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7">
-        <v>153465</v>
+        <v>52635</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>583</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="H30" s="7">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="I30" s="7">
-        <v>315528</v>
+        <v>139909</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="M30" s="7">
-        <v>420</v>
+        <v>166</v>
       </c>
       <c r="N30" s="7">
-        <v>468994</v>
+        <v>192545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>118</v>
+        <v>585</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,63 +7905,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2743</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2902369</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2638</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2735870</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5381</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5638240</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>333</v>
+      </c>
+      <c r="D33" s="7">
+        <v>338515</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H33" s="7">
+        <v>435</v>
+      </c>
+      <c r="I33" s="7">
+        <v>493143</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M33" s="7">
+        <v>768</v>
+      </c>
+      <c r="N33" s="7">
+        <v>831659</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>155</v>
+      </c>
+      <c r="D34" s="7">
+        <v>153465</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H34" s="7">
+        <v>265</v>
+      </c>
+      <c r="I34" s="7">
+        <v>315528</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M34" s="7">
+        <v>420</v>
+      </c>
+      <c r="N34" s="7">
+        <v>468994</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7254,8 +8181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E811EEE-3B95-424C-9E8D-26D4226BC5A0}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B248BEC-86CA-4FA2-A3A5-A50D3B58919B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7271,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7375,46 +8302,46 @@
         <v>170</v>
       </c>
       <c r="D4" s="7">
-        <v>372286</v>
+        <v>394453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="H4" s="7">
         <v>202</v>
       </c>
       <c r="I4" s="7">
-        <v>346708</v>
+        <v>306426</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>620</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>543</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="M4" s="7">
         <v>372</v>
       </c>
       <c r="N4" s="7">
-        <v>718994</v>
+        <v>700879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>622</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,46 +8353,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>5393</v>
+        <v>5534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>6005</v>
+        <v>5153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>549</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>11398</v>
+        <v>10687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>36</v>
+        <v>628</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,40 +8410,40 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>554</v>
+        <v>632</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>555</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +8455,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -7543,7 +8470,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -7558,7 +8485,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -7581,46 +8508,46 @@
         <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>413783</v>
+        <v>409098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
       </c>
       <c r="I8" s="7">
-        <v>491999</v>
+        <v>505614</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>560</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
       </c>
       <c r="N8" s="7">
-        <v>905782</v>
+        <v>914712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,46 +8559,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>9204</v>
+        <v>9726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>566</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>610</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>6249</v>
+        <v>5565</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>15453</v>
+        <v>15290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,46 +8610,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5409</v>
+        <v>4723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>648</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>967</v>
+        <v>914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>649</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>6376</v>
+        <v>5638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>577</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,7 +8661,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -7749,7 +8676,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -7764,7 +8691,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -7787,46 +8714,46 @@
         <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>526413</v>
+        <v>506362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>579</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>580</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>786</v>
       </c>
       <c r="I12" s="7">
-        <v>567353</v>
+        <v>552502</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
       </c>
       <c r="N12" s="7">
-        <v>1093765</v>
+        <v>1058864</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>657</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,46 +8765,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>25797</v>
+        <v>25231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>660</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>31654</v>
+        <v>28869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>57451</v>
+        <v>54100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,46 +8816,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>5042</v>
+        <v>4745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>668</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>10837</v>
+        <v>10086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>670</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>15879</v>
+        <v>14831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +8867,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -7955,7 +8882,7 @@
         <v>847</v>
       </c>
       <c r="I15" s="7">
-        <v>609843</v>
+        <v>591457</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -7970,7 +8897,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167095</v>
+        <v>1127795</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7993,46 +8920,46 @@
         <v>596</v>
       </c>
       <c r="D16" s="7">
-        <v>596350</v>
+        <v>570965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="H16" s="7">
         <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>650122</v>
+        <v>624834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="M16" s="7">
         <v>1599</v>
       </c>
       <c r="N16" s="7">
-        <v>1246473</v>
+        <v>1195799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,46 +8971,46 @@
         <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>99884</v>
+        <v>289638</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>71906</v>
+        <v>64860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>685</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>687</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
       </c>
       <c r="N17" s="7">
-        <v>171790</v>
+        <v>354497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,46 +9022,46 @@
         <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>27756</v>
+        <v>27184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>615</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>25233</v>
+        <v>23187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>693</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>52988</v>
+        <v>50371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>695</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>618</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,7 +9073,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -8161,7 +9088,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -8176,7 +9103,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8199,46 +9126,46 @@
         <v>530</v>
       </c>
       <c r="D20" s="7">
-        <v>471682</v>
+        <v>440694</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
       </c>
       <c r="I20" s="7">
-        <v>444935</v>
+        <v>408751</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="M20" s="7">
         <v>1283</v>
       </c>
       <c r="N20" s="7">
-        <v>916617</v>
+        <v>849445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,46 +9177,46 @@
         <v>98</v>
       </c>
       <c r="D21" s="7">
-        <v>94148</v>
+        <v>89099</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>531</v>
+        <v>706</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>173</v>
       </c>
       <c r="H21" s="7">
         <v>181</v>
       </c>
       <c r="I21" s="7">
-        <v>109354</v>
+        <v>100066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="M21" s="7">
         <v>279</v>
       </c>
       <c r="N21" s="7">
-        <v>203502</v>
+        <v>189165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>343</v>
+        <v>710</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,46 +9228,46 @@
         <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>34327</v>
+        <v>31441</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>715</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>42774</v>
+        <v>39088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>716</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>516</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
       </c>
       <c r="N22" s="7">
-        <v>77101</v>
+        <v>70529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,7 +9279,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -8367,7 +9294,7 @@
         <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -8382,7 +9309,7 @@
         <v>1665</v>
       </c>
       <c r="N23" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -8402,49 +9329,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>641</v>
+        <v>428</v>
       </c>
       <c r="D24" s="7">
-        <v>432297</v>
+        <v>273832</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="H24" s="7">
-        <v>692</v>
+        <v>493</v>
       </c>
       <c r="I24" s="7">
-        <v>476184</v>
+        <v>444649</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="M24" s="7">
-        <v>1333</v>
+        <v>921</v>
       </c>
       <c r="N24" s="7">
-        <v>908482</v>
+        <v>718481</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8453,49 +9380,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>175317</v>
+        <v>66445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="H25" s="7">
-        <v>604</v>
+        <v>246</v>
       </c>
       <c r="I25" s="7">
-        <v>324155</v>
+        <v>120345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="M25" s="7">
-        <v>855</v>
+        <v>346</v>
       </c>
       <c r="N25" s="7">
-        <v>499472</v>
+        <v>186790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8504,49 +9431,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7">
-        <v>89321</v>
+        <v>27141</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="H26" s="7">
-        <v>411</v>
+        <v>88</v>
       </c>
       <c r="I26" s="7">
-        <v>225669</v>
+        <v>43374</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>664</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="M26" s="7">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="N26" s="7">
-        <v>314990</v>
+        <v>70515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>667</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,10 +9482,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>696936</v>
+        <v>367418</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -8570,10 +9497,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026007</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -8585,10 +9512,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722944</v>
+        <v>975786</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -8602,55 +9529,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2747</v>
+        <v>213</v>
       </c>
       <c r="D28" s="7">
-        <v>2812811</v>
+        <v>129006</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="H28" s="7">
-        <v>3889</v>
+        <v>199</v>
       </c>
       <c r="I28" s="7">
-        <v>2977301</v>
+        <v>93984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="M28" s="7">
-        <v>6636</v>
+        <v>412</v>
       </c>
       <c r="N28" s="7">
-        <v>5790112</v>
+        <v>222990</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>675</v>
+        <v>557</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>676</v>
+        <v>751</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>677</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,49 +9586,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="D29" s="7">
-        <v>409744</v>
+        <v>97949</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>678</v>
+        <v>753</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>680</v>
+        <v>755</v>
       </c>
       <c r="H29" s="7">
-        <v>944</v>
+        <v>358</v>
       </c>
       <c r="I29" s="7">
-        <v>549323</v>
+        <v>172784</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>682</v>
+        <v>757</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>683</v>
+        <v>758</v>
       </c>
       <c r="M29" s="7">
-        <v>1369</v>
+        <v>509</v>
       </c>
       <c r="N29" s="7">
-        <v>959067</v>
+        <v>270733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>366</v>
+        <v>759</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,49 +9637,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="D30" s="7">
-        <v>161855</v>
+        <v>55804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="H30" s="7">
-        <v>532</v>
+        <v>323</v>
       </c>
       <c r="I30" s="7">
-        <v>307723</v>
+        <v>158490</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>296</v>
+        <v>766</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="M30" s="7">
-        <v>735</v>
+        <v>417</v>
       </c>
       <c r="N30" s="7">
-        <v>469578</v>
+        <v>214294</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>769</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,63 +9688,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425258</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708017</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2747</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2724411</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3889</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2936759</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6636</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5661170</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>425</v>
+      </c>
+      <c r="D33" s="7">
+        <v>583621</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="H33" s="7">
+        <v>944</v>
+      </c>
+      <c r="I33" s="7">
+        <v>497642</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1369</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1081262</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>203</v>
+      </c>
+      <c r="D34" s="7">
+        <v>151039</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H34" s="7">
+        <v>532</v>
+      </c>
+      <c r="I34" s="7">
+        <v>276760</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="M34" s="7">
+        <v>735</v>
+      </c>
+      <c r="N34" s="7">
+        <v>427799</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3375</v>
       </c>
-      <c r="D31" s="7">
-        <v>3384410</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459070</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>5365</v>
       </c>
-      <c r="I31" s="7">
-        <v>3834346</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3711161</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>8740</v>
       </c>
-      <c r="N31" s="7">
-        <v>7218756</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7170231</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
